--- a/natmiOut/OldD7/LR-pairs_lrc2p/Mdk-Sdc4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Mdk-Sdc4.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.25267909965834</v>
+        <v>1.324023666666666</v>
       </c>
       <c r="H2">
-        <v>1.25267909965834</v>
+        <v>3.972071</v>
       </c>
       <c r="I2">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="J2">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.18686435064815</v>
+        <v>3.438907666666667</v>
       </c>
       <c r="N2">
-        <v>2.18686435064815</v>
+        <v>10.316723</v>
       </c>
       <c r="O2">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="P2">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="Q2">
-        <v>2.739439265844845</v>
+        <v>4.55319513814811</v>
       </c>
       <c r="R2">
-        <v>2.739439265844845</v>
+        <v>40.978756243333</v>
       </c>
       <c r="S2">
-        <v>0.0005980464268035286</v>
+        <v>0.0008843238102554191</v>
       </c>
       <c r="T2">
-        <v>0.0005980464268035286</v>
+        <v>0.0008843238102554191</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.25267909965834</v>
+        <v>1.324023666666666</v>
       </c>
       <c r="H3">
-        <v>1.25267909965834</v>
+        <v>3.972071</v>
       </c>
       <c r="I3">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="J3">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.3350883614071</v>
+        <v>10.383857</v>
       </c>
       <c r="N3">
-        <v>10.3350883614071</v>
+        <v>31.151571</v>
       </c>
       <c r="O3">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="P3">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="Q3">
-        <v>12.94654918345683</v>
+        <v>13.74847241928233</v>
       </c>
       <c r="R3">
-        <v>12.94654918345683</v>
+        <v>123.736251773541</v>
       </c>
       <c r="S3">
-        <v>0.00282635850888801</v>
+        <v>0.002670235108780397</v>
       </c>
       <c r="T3">
-        <v>0.00282635850888801</v>
+        <v>0.002670235108780397</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.25267909965834</v>
+        <v>1.324023666666666</v>
       </c>
       <c r="H4">
-        <v>1.25267909965834</v>
+        <v>3.972071</v>
       </c>
       <c r="I4">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="J4">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.1076762226289</v>
+        <v>25.34077833333333</v>
       </c>
       <c r="N4">
-        <v>23.1076762226289</v>
+        <v>76.022335</v>
       </c>
       <c r="O4">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="P4">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="Q4">
-        <v>28.9465030457592</v>
+        <v>33.55179024508722</v>
       </c>
       <c r="R4">
-        <v>28.9465030457592</v>
+        <v>301.966112205785</v>
       </c>
       <c r="S4">
-        <v>0.006319305169788065</v>
+        <v>0.006516445285166026</v>
       </c>
       <c r="T4">
-        <v>0.006319305169788065</v>
+        <v>0.006516445285166027</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.25267909965834</v>
+        <v>1.324023666666666</v>
       </c>
       <c r="H5">
-        <v>1.25267909965834</v>
+        <v>3.972071</v>
       </c>
       <c r="I5">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="J5">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.7210304332839</v>
+        <v>19.86921833333334</v>
       </c>
       <c r="N5">
-        <v>17.7210304332839</v>
+        <v>59.60765500000001</v>
       </c>
       <c r="O5">
-        <v>0.3321614136211347</v>
+        <v>0.336579517619719</v>
       </c>
       <c r="P5">
-        <v>0.3321614136211347</v>
+        <v>0.336579517619719</v>
       </c>
       <c r="Q5">
-        <v>22.19876444818412</v>
+        <v>26.30731531150056</v>
       </c>
       <c r="R5">
-        <v>22.19876444818412</v>
+        <v>236.765837803505</v>
       </c>
       <c r="S5">
-        <v>0.004846207734266167</v>
+        <v>0.005109419782811896</v>
       </c>
       <c r="T5">
-        <v>0.004846207734266167</v>
+        <v>0.005109419782811896</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>80.0823512563625</v>
+        <v>81.17653533333333</v>
       </c>
       <c r="H6">
-        <v>80.0823512563625</v>
+        <v>243.529606</v>
       </c>
       <c r="I6">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270077</v>
       </c>
       <c r="J6">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270075</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.18686435064815</v>
+        <v>3.438907666666667</v>
       </c>
       <c r="N6">
-        <v>2.18686435064815</v>
+        <v>10.316723</v>
       </c>
       <c r="O6">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="P6">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="Q6">
-        <v>175.1292390786222</v>
+        <v>279.1586097112375</v>
       </c>
       <c r="R6">
-        <v>175.1292390786222</v>
+        <v>2512.427487401138</v>
       </c>
       <c r="S6">
-        <v>0.03823242842636646</v>
+        <v>0.05421832315885618</v>
       </c>
       <c r="T6">
-        <v>0.03823242842636646</v>
+        <v>0.05421832315885617</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>80.0823512563625</v>
+        <v>81.17653533333333</v>
       </c>
       <c r="H7">
-        <v>80.0823512563625</v>
+        <v>243.529606</v>
       </c>
       <c r="I7">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270077</v>
       </c>
       <c r="J7">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270075</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.3350883614071</v>
+        <v>10.383857</v>
       </c>
       <c r="N7">
-        <v>10.3350883614071</v>
+        <v>31.151571</v>
       </c>
       <c r="O7">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="P7">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="Q7">
-        <v>827.6581764237474</v>
+        <v>842.9255346567808</v>
       </c>
       <c r="R7">
-        <v>827.6581764237474</v>
+        <v>7586.329811911026</v>
       </c>
       <c r="S7">
-        <v>0.1806858875085501</v>
+        <v>0.1637134139769045</v>
       </c>
       <c r="T7">
-        <v>0.1806858875085501</v>
+        <v>0.1637134139769045</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>80.0823512563625</v>
+        <v>81.17653533333333</v>
       </c>
       <c r="H8">
-        <v>80.0823512563625</v>
+        <v>243.529606</v>
       </c>
       <c r="I8">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270077</v>
       </c>
       <c r="J8">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270075</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>23.1076762226289</v>
+        <v>25.34077833333333</v>
       </c>
       <c r="N8">
-        <v>23.1076762226289</v>
+        <v>76.022335</v>
       </c>
       <c r="O8">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="P8">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="Q8">
-        <v>1850.517043978863</v>
+        <v>2057.076587750001</v>
       </c>
       <c r="R8">
-        <v>1850.517043978863</v>
+        <v>18513.68928975001</v>
       </c>
       <c r="S8">
-        <v>0.4039859980430273</v>
+        <v>0.3995264316315192</v>
       </c>
       <c r="T8">
-        <v>0.4039859980430273</v>
+        <v>0.3995264316315192</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>80.0823512563625</v>
+        <v>81.17653533333333</v>
       </c>
       <c r="H9">
-        <v>80.0823512563625</v>
+        <v>243.529606</v>
       </c>
       <c r="I9">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270077</v>
       </c>
       <c r="J9">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270075</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.7210304332839</v>
+        <v>19.86921833333334</v>
       </c>
       <c r="N9">
-        <v>17.7210304332839</v>
+        <v>59.60765500000001</v>
       </c>
       <c r="O9">
-        <v>0.3321614136211347</v>
+        <v>0.336579517619719</v>
       </c>
       <c r="P9">
-        <v>0.3321614136211347</v>
+        <v>0.336579517619719</v>
       </c>
       <c r="Q9">
-        <v>1419.141783782931</v>
+        <v>1612.914304081548</v>
       </c>
       <c r="R9">
-        <v>1419.141783782931</v>
+        <v>14516.22873673393</v>
       </c>
       <c r="S9">
-        <v>0.3098125530653895</v>
+        <v>0.3132610133597276</v>
       </c>
       <c r="T9">
-        <v>0.3098125530653895</v>
+        <v>0.3132610133597276</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.12026610726167</v>
+        <v>1.192675</v>
       </c>
       <c r="H10">
-        <v>1.12026610726167</v>
+        <v>3.578025</v>
       </c>
       <c r="I10">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="J10">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.18686435064815</v>
+        <v>3.438907666666667</v>
       </c>
       <c r="N10">
-        <v>2.18686435064815</v>
+        <v>10.316723</v>
       </c>
       <c r="O10">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="P10">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="Q10">
-        <v>2.449870013209923</v>
+        <v>4.101499201341667</v>
       </c>
       <c r="R10">
-        <v>2.449870013209923</v>
+        <v>36.913492812075</v>
       </c>
       <c r="S10">
-        <v>0.0005348306223833944</v>
+        <v>0.0007965952021474809</v>
       </c>
       <c r="T10">
-        <v>0.0005348306223833944</v>
+        <v>0.0007965952021474808</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.12026610726167</v>
+        <v>1.192675</v>
       </c>
       <c r="H11">
-        <v>1.12026610726167</v>
+        <v>3.578025</v>
       </c>
       <c r="I11">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="J11">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.3350883614071</v>
+        <v>10.383857</v>
       </c>
       <c r="N11">
-        <v>10.3350883614071</v>
+        <v>31.151571</v>
       </c>
       <c r="O11">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="P11">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="Q11">
-        <v>11.57804920683892</v>
+        <v>12.384566647475</v>
       </c>
       <c r="R11">
-        <v>11.57804920683892</v>
+        <v>111.461099827275</v>
       </c>
       <c r="S11">
-        <v>0.002527601558405061</v>
+        <v>0.002405336655637319</v>
       </c>
       <c r="T11">
-        <v>0.002527601558405061</v>
+        <v>0.002405336655637318</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.12026610726167</v>
+        <v>1.192675</v>
       </c>
       <c r="H12">
-        <v>1.12026610726167</v>
+        <v>3.578025</v>
       </c>
       <c r="I12">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="J12">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>23.1076762226289</v>
+        <v>25.34077833333333</v>
       </c>
       <c r="N12">
-        <v>23.1076762226289</v>
+        <v>76.022335</v>
       </c>
       <c r="O12">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="P12">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="Q12">
-        <v>25.88674648978753</v>
+        <v>30.22331279870833</v>
       </c>
       <c r="R12">
-        <v>25.88674648978753</v>
+        <v>272.009815188375</v>
       </c>
       <c r="S12">
-        <v>0.005651330340777502</v>
+        <v>0.005869986750351688</v>
       </c>
       <c r="T12">
-        <v>0.005651330340777502</v>
+        <v>0.005869986750351688</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.12026610726167</v>
+        <v>1.192675</v>
       </c>
       <c r="H13">
-        <v>1.12026610726167</v>
+        <v>3.578025</v>
       </c>
       <c r="I13">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="J13">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.7210304332839</v>
+        <v>19.86921833333334</v>
       </c>
       <c r="N13">
-        <v>17.7210304332839</v>
+        <v>59.60765500000001</v>
       </c>
       <c r="O13">
-        <v>0.3321614136211347</v>
+        <v>0.336579517619719</v>
       </c>
       <c r="P13">
-        <v>0.3321614136211347</v>
+        <v>0.336579517619719</v>
       </c>
       <c r="Q13">
-        <v>19.85226978016054</v>
+        <v>23.69751997570834</v>
       </c>
       <c r="R13">
-        <v>19.85226978016054</v>
+        <v>213.277679781375</v>
       </c>
       <c r="S13">
-        <v>0.004333944962383815</v>
+        <v>0.004602544042741315</v>
       </c>
       <c r="T13">
-        <v>0.004333944962383815</v>
+        <v>0.004602544042741315</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.40393272619235</v>
+        <v>3.525915333333334</v>
       </c>
       <c r="H14">
-        <v>3.40393272619235</v>
+        <v>10.577746</v>
       </c>
       <c r="I14">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510095</v>
       </c>
       <c r="J14">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510094</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.18686435064815</v>
+        <v>3.438907666666667</v>
       </c>
       <c r="N14">
-        <v>2.18686435064815</v>
+        <v>10.316723</v>
       </c>
       <c r="O14">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="P14">
-        <v>0.04099039030736239</v>
+        <v>0.05825422340060618</v>
       </c>
       <c r="Q14">
-        <v>7.443939130914621</v>
+        <v>12.12529727181756</v>
       </c>
       <c r="R14">
-        <v>7.443939130914621</v>
+        <v>109.127675446358</v>
       </c>
       <c r="S14">
-        <v>0.001625084831809004</v>
+        <v>0.002354981229347114</v>
       </c>
       <c r="T14">
-        <v>0.001625084831809004</v>
+        <v>0.002354981229347114</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.40393272619235</v>
+        <v>3.525915333333334</v>
       </c>
       <c r="H15">
-        <v>3.40393272619235</v>
+        <v>10.577746</v>
       </c>
       <c r="I15">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510095</v>
       </c>
       <c r="J15">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510094</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.3350883614071</v>
+        <v>10.383857</v>
       </c>
       <c r="N15">
-        <v>10.3350883614071</v>
+        <v>31.151571</v>
       </c>
       <c r="O15">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="P15">
-        <v>0.1937199742954317</v>
+        <v>0.1758999031294962</v>
       </c>
       <c r="Q15">
-        <v>35.1799455014833</v>
+        <v>36.61260061544068</v>
       </c>
       <c r="R15">
-        <v>35.1799455014833</v>
+        <v>329.513405538966</v>
       </c>
       <c r="S15">
-        <v>0.007680126719588522</v>
+        <v>0.00711091738817393</v>
       </c>
       <c r="T15">
-        <v>0.007680126719588522</v>
+        <v>0.007110917388173929</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.40393272619235</v>
+        <v>3.525915333333334</v>
       </c>
       <c r="H16">
-        <v>3.40393272619235</v>
+        <v>10.577746</v>
       </c>
       <c r="I16">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510095</v>
       </c>
       <c r="J16">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510094</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.1076762226289</v>
+        <v>25.34077833333333</v>
       </c>
       <c r="N16">
-        <v>23.1076762226289</v>
+        <v>76.022335</v>
       </c>
       <c r="O16">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="P16">
-        <v>0.4331282217760713</v>
+        <v>0.4292663558501786</v>
       </c>
       <c r="Q16">
-        <v>78.65697532046333</v>
+        <v>89.34943888410112</v>
       </c>
       <c r="R16">
-        <v>78.65697532046333</v>
+        <v>804.1449499569101</v>
       </c>
       <c r="S16">
-        <v>0.01717158822247848</v>
+        <v>0.01735349218314169</v>
       </c>
       <c r="T16">
-        <v>0.01717158822247848</v>
+        <v>0.01735349218314169</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.40393272619235</v>
+        <v>3.525915333333334</v>
       </c>
       <c r="H17">
-        <v>3.40393272619235</v>
+        <v>10.577746</v>
       </c>
       <c r="I17">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510095</v>
       </c>
       <c r="J17">
-        <v>0.03964550763297121</v>
+        <v>0.04042593123510094</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.7210304332839</v>
+        <v>19.86921833333334</v>
       </c>
       <c r="N17">
-        <v>17.7210304332839</v>
+        <v>59.60765500000001</v>
       </c>
       <c r="O17">
-        <v>0.3321614136211347</v>
+        <v>0.336579517619719</v>
       </c>
       <c r="P17">
-        <v>0.3321614136211347</v>
+        <v>0.336579517619719</v>
       </c>
       <c r="Q17">
-        <v>60.32119543370567</v>
+        <v>70.05718158284779</v>
       </c>
       <c r="R17">
-        <v>60.32119543370567</v>
+        <v>630.5146342456302</v>
       </c>
       <c r="S17">
-        <v>0.0131687078590952</v>
+        <v>0.01360654043443821</v>
       </c>
       <c r="T17">
-        <v>0.0131687078590952</v>
+        <v>0.01360654043443821</v>
       </c>
     </row>
   </sheetData>
